--- a/data/trans_orig/P14C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E083FB-76F2-4863-A22B-3FE40890933F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB6CF81-B8A0-4801-8743-A016C6793EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1CB43E5-9BC0-4EC5-960D-0B4489A1553A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{248F9EBA-D4EA-46DD-82CA-939D3D0193D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
     <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>65,49%</t>
+    <t>67,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>96,24%</t>
   </si>
   <si>
-    <t>82,17%</t>
+    <t>80,15%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>32,62%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>3,76%</t>
   </si>
   <si>
-    <t>17,83%</t>
+    <t>19,85%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,19 +134,19 @@
     <t>78,76%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -155,355 +155,367 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -512,7 +524,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F36D6D-A73E-4A33-ACAF-5D0CEA18AC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0216D729-26ED-4688-8D87-9B6B55DA9CA3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2189,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2204,7 +2216,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2213,13 +2225,13 @@
         <v>807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2287,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2290,7 +2302,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -2302,13 +2314,13 @@
         <v>26632</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -2317,13 +2329,13 @@
         <v>47051</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2365,13 @@
         <v>1976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2368,13 +2380,13 @@
         <v>1976</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2416,13 @@
         <v>1067</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2419,13 +2431,13 @@
         <v>1067</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2493,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2505,13 @@
         <v>15666</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -2508,10 +2520,10 @@
         <v>31361</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2523,13 +2535,13 @@
         <v>47026</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2556,13 @@
         <v>2998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2559,13 +2571,13 @@
         <v>2159</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2574,13 +2586,13 @@
         <v>5158</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2631,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2711,13 @@
         <v>78799</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>117</v>
@@ -2714,13 +2726,13 @@
         <v>126349</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>193</v>
@@ -2729,13 +2741,13 @@
         <v>205148</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2762,13 @@
         <v>6579</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2765,13 +2777,13 @@
         <v>10839</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -2780,13 +2792,13 @@
         <v>17419</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2813,13 @@
         <v>807</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2816,13 +2828,13 @@
         <v>1969</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -2831,13 +2843,13 @@
         <v>2775</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2905,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDB6CF81-B8A0-4801-8743-A016C6793EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFC17F8-B3A4-4CA1-A8CF-022BC70B5A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{248F9EBA-D4EA-46DD-82CA-939D3D0193D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60E26EA7-DA6F-4D82-98DD-B2DC23EF413C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
-  <si>
-    <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="163">
+  <si>
+    <t>Población según el tiempo de diagnóstico del asma en 2016 (Tasa respuesta: 3,26%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>92,35%</t>
   </si>
   <si>
-    <t>67,38%</t>
+    <t>63,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>96,24%</t>
   </si>
   <si>
-    <t>80,15%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,62%</t>
+    <t>36,46%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>3,76%</t>
   </si>
   <si>
-    <t>19,85%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,19 +134,19 @@
     <t>78,76%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -155,19 +155,19 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -182,37 +182,37 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>55,17%</t>
+    <t>53,06%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>70,92%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>35,42%</t>
+    <t>35,33%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>26,35%</t>
+    <t>23,02%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>46,01%</t>
+    <t>36,02%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>25,38%</t>
+    <t>22,82%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -221,7 +221,7 @@
     <t>93,69%</t>
   </si>
   <si>
-    <t>73,4%</t>
+    <t>66,49%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -230,13 +230,13 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>84,3%</t>
+    <t>85,11%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>26,6%</t>
+    <t>33,51%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -245,7 +245,7 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>15,7%</t>
+    <t>14,89%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -260,7 +260,7 @@
     <t>82,85%</t>
   </si>
   <si>
-    <t>31,85%</t>
+    <t>32,39%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -269,13 +269,13 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>68,21%</t>
+    <t>61,05%</t>
   </si>
   <si>
     <t>17,15%</t>
   </si>
   <si>
-    <t>68,15%</t>
+    <t>67,61%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -284,7 +284,7 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>38,95%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -299,16 +299,16 @@
     <t>76,17%</t>
   </si>
   <si>
-    <t>37,4%</t>
+    <t>37,82%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>25,24%</t>
@@ -320,16 +320,13 @@
     <t>23,83%</t>
   </si>
   <si>
-    <t>62,6%</t>
+    <t>62,18%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>23,2%</t>
@@ -344,7 +341,7 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>37,39%</t>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -356,43 +353,43 @@
     <t>89,75%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>6,66%</t>
   </si>
   <si>
-    <t>20,9%</t>
+    <t>24,31%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>12,17%</t>
+    <t>15,16%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>17,85%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,8%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -401,49 +398,49 @@
     <t>83,94%</t>
   </si>
   <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>93,56%</t>
   </si>
   <si>
-    <t>79,57%</t>
+    <t>80,37%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>20,43%</t>
+    <t>19,63%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -455,76 +452,76 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -939,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0216D729-26ED-4688-8D87-9B6B55DA9CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECA2CBE-5366-4DC1-A97D-8F886AC97ECD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2177,10 +2174,10 @@
         <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2192,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2216,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2225,13 +2222,13 @@
         <v>807</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,7 +2284,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2302,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -2314,13 +2311,13 @@
         <v>26632</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -2329,13 +2326,13 @@
         <v>47051</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2362,13 @@
         <v>1976</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2380,13 +2377,13 @@
         <v>1976</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2413,13 @@
         <v>1067</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2431,13 +2428,13 @@
         <v>1067</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,7 +2490,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2505,13 +2502,13 @@
         <v>15666</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -2520,10 +2517,10 @@
         <v>31361</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>13</v>
@@ -2535,13 +2532,13 @@
         <v>47026</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,13 +2553,13 @@
         <v>2998</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2571,13 +2568,13 @@
         <v>2159</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -2586,13 +2583,13 @@
         <v>5158</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,7 +2625,7 @@
         <v>22</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2643,7 +2640,7 @@
         <v>22</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2708,13 @@
         <v>78799</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>117</v>
@@ -2726,13 +2723,13 @@
         <v>126349</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>193</v>
@@ -2741,13 +2738,13 @@
         <v>205148</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2759,13 @@
         <v>6579</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -2777,13 +2774,13 @@
         <v>10839</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -2792,13 +2789,13 @@
         <v>17419</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2810,13 @@
         <v>807</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -2828,13 +2825,13 @@
         <v>1969</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -2843,13 +2840,13 @@
         <v>2775</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,7 +2902,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
